--- a/public/assets/report/report-jamkesda.xlsx
+++ b/public/assets/report/report-jamkesda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66EABD-0569-4292-8DC5-7EE4384E7D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830FB49-8CA3-474B-8FDF-C1EAFA512138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,6 +314,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2048EE7-8CBE-52BC-B503-B5F585E7B5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="45720" y="1013460"/>
+          <a:ext cx="6484620" cy="34925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -606,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/public/assets/report/report-jamkesda.xlsx
+++ b/public/assets/report/report-jamkesda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830FB49-8CA3-474B-8FDF-C1EAFA512138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E68789-1F14-414F-8936-DCD3EF0E7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,11 +146,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -197,25 +225,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="20"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="21"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="17"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="18"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="23"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="21"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="19"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,14 +690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" style="9" customWidth="1"/>
     <col min="4" max="4" width="7" style="7" customWidth="1"/>
     <col min="5" max="5" width="10" style="7" customWidth="1"/>
@@ -674,93 +708,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,21 +809,21 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -813,10 +847,10 @@
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -828,7 +862,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -2163,14 +2197,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
